--- a/xl/course_participants.xlsx
+++ b/xl/course_participants.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fz/Dev/python-for-excel/material/ch04/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://my.shell.com/personal/dmitry_goryunov_shell_com/Documents/Documents/GitHub/python-for-excel/xl/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C3465C-E2E7-7547-83E7-56DB60E1F49F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{D4C3465C-E2E7-7547-83E7-56DB60E1F49F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0AB88CC-3734-49A7-AEC4-A1F068F09718}"/>
   <bookViews>
-    <workbookView xWindow="-3860" yWindow="-21140" windowWidth="38400" windowHeight="21140" xr2:uid="{D8AE91DD-D984-C848-920F-CB3FB60A3001}"/>
+    <workbookView xWindow="-7692" yWindow="-17388" windowWidth="30936" windowHeight="17496" xr2:uid="{D8AE91DD-D984-C848-920F-CB3FB60A3001}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -454,14 +454,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BCAF46B-2496-1546-A289-FC4E1B988F1A}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -481,7 +483,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1001</v>
       </c>
@@ -501,7 +503,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -521,7 +523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -541,7 +543,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -555,7 +557,7 @@
         <v>14</v>
       </c>
       <c r="E5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>8</v>
@@ -567,4 +569,10 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{d0cb1e24-a0e2-4a4c-9340-733297c9cd7c}" enabled="1" method="Privileged" siteId="{db1e96a8-a3da-442a-930b-235cac24cd5c}" removed="0"/>
+</clbl:labelList>
 </file>